--- a/Inputs/William_metabolites.xlsx
+++ b/Inputs/William_metabolites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_class\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089BFFD7-E2A9-4724-8E35-6D888D5BE42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A44590-1402-4E17-A359-58D78F04A545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="day_10" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>NC</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Control</t>
   </si>
   <si>
-    <t>VN.032mM</t>
-  </si>
-  <si>
     <t>FA.5mM</t>
   </si>
   <si>
@@ -206,6 +203,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>VN.0.32mM</t>
+  </si>
+  <si>
+    <t>Order_days</t>
+  </si>
+  <si>
+    <t>Order_supplementation</t>
   </si>
 </sst>
 </file>
@@ -296,8 +302,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1041,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782DC564-5FF5-4DF5-B472-2E1A9C5598A3}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2338,15 +2344,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9A41B1-85B5-4C7A-9C4E-9EDBDF6B0531}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -2356,8 +2366,14 @@
       <c r="C1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2365,95 +2381,125 @@
         <v>43</v>
       </c>
       <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
